--- a/players-to-watch.xlsx
+++ b/players-to-watch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\World-Cup-2026-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E575B5-BA91-48EF-AA5F-A84D5AF78732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFAB8AE-C23C-41CA-A3B2-74E09F05A57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="620" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CAF!$A$1:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$G$510</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$G$507</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="171">
   <si>
     <t>confederation</t>
   </si>
@@ -1079,17 +1079,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAD1C44-A37B-4464-A468-620206F30BBE}">
-  <dimension ref="A1:G510"/>
+  <dimension ref="A1:G507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -12756,68 +12756,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
-        <v>87</v>
-      </c>
-      <c r="B508" t="s">
-        <v>128</v>
-      </c>
-      <c r="C508" t="s">
-        <v>121</v>
-      </c>
-      <c r="D508" t="s">
-        <v>137</v>
-      </c>
-      <c r="E508">
-        <v>35</v>
-      </c>
-      <c r="F508">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
-        <v>88</v>
-      </c>
-      <c r="B509" t="s">
-        <v>128</v>
-      </c>
-      <c r="C509" t="s">
-        <v>121</v>
-      </c>
-      <c r="D509" t="s">
-        <v>137</v>
-      </c>
-      <c r="E509">
-        <v>35</v>
-      </c>
-      <c r="F509">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
-        <v>89</v>
-      </c>
-      <c r="B510" t="s">
-        <v>128</v>
-      </c>
-      <c r="C510" t="s">
-        <v>121</v>
-      </c>
-      <c r="D510" t="s">
-        <v>137</v>
-      </c>
-      <c r="E510">
-        <v>35</v>
-      </c>
-      <c r="F510">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G510" xr:uid="{EEAD1C44-A37B-4464-A468-620206F30BBE}"/>
+  <autoFilter ref="A1:G507" xr:uid="{EEAD1C44-A37B-4464-A468-620206F30BBE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
